--- a/share/data/design/物品表.xlsx
+++ b/share/data/design/物品表.xlsx
@@ -469,7 +469,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -509,7 +509,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>300001</v>
+        <v>1001</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>300002</v>
+        <v>1002</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>300003</v>
+        <v>1003</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>

--- a/share/data/design/物品表.xlsx
+++ b/share/data/design/物品表.xlsx
@@ -64,16 +64,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>i_b__053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_b__052</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_b__054</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>blazing_watcher_gem_0031</t>
+  </si>
+  <si>
+    <t>blazing_watcher_gem_0036</t>
+  </si>
+  <si>
+    <t>blazing_watcher_gem_0040</t>
   </si>
 </sst>
 </file>
@@ -469,13 +466,13 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="28.75" customWidth="1"/>
     <col min="8" max="8" width="17.375" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>

--- a/share/data/design/物品表.xlsx
+++ b/share/data/design/物品表.xlsx
@@ -116,7 +116,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -125,6 +125,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,127 +472,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="28.75" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
     <col min="8" max="8" width="17.375" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>1002</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>1003</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="D4" s="3">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4"/>
       <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
